--- a/seminario_investigacion/parcial_1/Problemas tabla excel.xlsx
+++ b/seminario_investigacion/parcial_1/Problemas tabla excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\ULSA8SEM\seminario_investigacion\parcial_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA93B9C-84BD-4E92-B3DF-E480E4393766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFC948-3B75-42D4-8579-4793124AB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F1171C3D-37EB-4251-8EA3-7BEDF6FA5C5C}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Precio de las RAM</t>
-  </si>
-  <si>
-    <t>Aumento de calidad de peliculas de terror</t>
-  </si>
-  <si>
     <t>Ciberseguridad</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>Jorge Parra Hidalgo - ITIT - 13104</t>
+  </si>
+  <si>
+    <t>Desinformacion causada por IA generativa</t>
+  </si>
+  <si>
+    <t>Identificacion de criminales por IA</t>
   </si>
 </sst>
 </file>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E1FC3-7B62-4FBE-85C4-5BC094A2D20A}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -718,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -748,29 +748,29 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <v>4</v>
       </c>
       <c r="I9" s="1">
         <f>SUM(C9:H9)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -787,20 +787,20 @@
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <v>4</v>
       </c>
       <c r="I10" s="1">
         <f>SUM(C10:H10)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -808,25 +808,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1">
         <f>SUM(C11:H11)</f>
@@ -838,29 +838,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1">
         <f>SUM(C12:H12)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,29 +868,29 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
         <f>SUM(C13:H13)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,6 +898,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:I3" xr:uid="{A47E1FC3-7B62-4FBE-85C4-5BC094A2D20A}">

--- a/seminario_investigacion/parcial_1/Problemas tabla excel.xlsx
+++ b/seminario_investigacion/parcial_1/Problemas tabla excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\ULSA8SEM\seminario_investigacion\parcial_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFC948-3B75-42D4-8579-4793124AB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A154B36-549C-467C-ADA5-2D4B9F5C791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F1171C3D-37EB-4251-8EA3-7BEDF6FA5C5C}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1">
-        <f>SUM(C4:H4)</f>
+        <f t="shared" ref="I4:I13" si="0">SUM(C4:H4)</f>
         <v>24</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="1">
-        <f>SUM(C5:H5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1">
-        <f>SUM(C6:H6)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="1">
-        <f>SUM(C7:H7)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="1">
-        <f>SUM(C8:H8)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM(C9:H9)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="1">
-        <f>SUM(C10:H10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <f>SUM(C11:H11)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <f>SUM(C12:H12)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(C13:H13)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
